--- a/commit_files/'xige-16'.xlsx
+++ b/commit_files/'xige-16'.xlsx
@@ -1775,10 +1775,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1796,24 +1796,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1839,6 +1824,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1855,24 +1847,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1886,6 +1863,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
@@ -1895,7 +1902,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1909,7 +1916,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -1925,8 +1931,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1934,13 +1941,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1973,7 +1973,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1985,25 +2081,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2015,139 +2147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2349,8 +2349,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2380,30 +2395,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2414,6 +2405,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2446,148 +2446,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="21" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3827,7 +3827,7 @@
   <dimension ref="A1:D268"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.82962962962963" defaultRowHeight="15" customHeight="true" outlineLevelCol="3"/>
@@ -3932,7 +3932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="13.55" customHeight="true" spans="1:4">
+    <row r="8" ht="13.55" hidden="true" customHeight="true" spans="1:4">
       <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
@@ -3940,9 +3940,7 @@
         <f>HYPERLINK("https://github.com/zilliztech/milvus-distributed/commit/71b081c13baa07cadf7185a7d027248e1ca00f35","71b081c13baa07cadf7185a7d027248e1ca00f35")</f>
         <v>71b081c13baa07cadf7185a7d027248e1ca00f35</v>
       </c>
-      <c r="C8" s="17">
-        <v>1</v>
-      </c>
+      <c r="C8" s="17"/>
       <c r="D8" s="18" t="s">
         <v>17</v>
       </c>
